--- a/Excel/Fredrikson/Заказ/Свободный склад Fredrikson - 2022.03.14(3).xlsx
+++ b/Excel/Fredrikson/Заказ/Свободный склад Fredrikson - 2022.03.14(3).xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUH\Documents\HatsAndCaps\Excel\Fredrikson\Заказ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D048C901-97D5-49FC-A870-7452E4BB7698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D239CFC2-1A11-4E50-B96A-5F6D6473A0B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="3" r:id="rId2"/>
+    <sheet name="153" sheetId="1" r:id="rId1"/>
+    <sheet name="152" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$1:$1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">Лист2!$1:$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'152'!$A$1:$Q$47</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'152'!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'153'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -271,7 +272,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,8 +285,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -386,13 +393,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -484,40 +524,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 30" xfId="2" xr:uid="{38063734-6A65-4C8F-A6B6-395639959244}"/>
   </cellStyles>
-  <dxfs count="52">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="21">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -676,143 +728,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
@@ -831,148 +746,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7500,11 +7278,11 @@
   <sheetPr codeName="Лист1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P81"/>
+  <dimension ref="A1:T81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -7522,7 +7300,7 @@
     <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
@@ -7570,11 +7348,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="str">
-        <f>D2&amp;E2</f>
-        <v>3215624/70</v>
+        <f>D2&amp;"-"&amp;E2</f>
+        <v>3215-624/70</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>4</v>
@@ -7616,12 +7394,18 @@
         <f>O2*G2</f>
         <v>5854.7999999999993</v>
       </c>
+      <c r="Q2" s="43">
+        <v>153</v>
+      </c>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
     </row>
-    <row r="3" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="3" t="str">
-        <f t="shared" ref="B3:B37" si="1">D3&amp;E3</f>
-        <v>3215630/77</v>
+        <f t="shared" ref="B3:B66" si="1">D3&amp;"-"&amp;E3</f>
+        <v>3215-630/77</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>4</v>
@@ -7665,12 +7449,16 @@
         <f t="shared" ref="P3:P37" si="2">O3*G3</f>
         <v>6830.5999999999995</v>
       </c>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
     </row>
-    <row r="4" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3215652/72</v>
+        <v>3215-652/72</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -7714,12 +7502,16 @@
         <f t="shared" si="2"/>
         <v>6830.5999999999995</v>
       </c>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
     </row>
-    <row r="5" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3215667/20</v>
+        <v>3215-667/20</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
@@ -7759,14 +7551,18 @@
         <f t="shared" si="2"/>
         <v>4879</v>
       </c>
+      <c r="Q5" s="40"/>
+      <c r="R5" s="40"/>
+      <c r="S5" s="40"/>
+      <c r="T5" s="40"/>
     </row>
-    <row r="6" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3215684/29</v>
+        <v>3215-684/29</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>4</v>
@@ -7808,12 +7604,16 @@
         <f t="shared" si="2"/>
         <v>5854.7999999999993</v>
       </c>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="S6" s="40"/>
+      <c r="T6" s="40"/>
     </row>
-    <row r="7" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3030632/23</v>
+        <v>3030-632/23</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
@@ -7857,12 +7657,16 @@
         <f t="shared" si="2"/>
         <v>11709.599999999999</v>
       </c>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
+      <c r="S7" s="40"/>
+      <c r="T7" s="40"/>
     </row>
-    <row r="8" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3035630/23</v>
+        <v>3035-630/23</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
@@ -7904,12 +7708,16 @@
         <f t="shared" si="2"/>
         <v>12685.4</v>
       </c>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
     </row>
-    <row r="9" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3101624/25</v>
+        <v>3101-624/25</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>7</v>
@@ -7955,12 +7763,16 @@
         <f t="shared" si="2"/>
         <v>22443.399999999998</v>
       </c>
+      <c r="Q9" s="40"/>
+      <c r="R9" s="40"/>
+      <c r="S9" s="40"/>
+      <c r="T9" s="40"/>
     </row>
-    <row r="10" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3101684/44</v>
+        <v>3101-684/44</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>7</v>
@@ -8002,12 +7814,16 @@
         <f t="shared" si="2"/>
         <v>8782.1999999999989</v>
       </c>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
     </row>
-    <row r="11" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3101685/15</v>
+        <v>3101-685/15</v>
       </c>
       <c r="C11" s="29" t="s">
         <v>7</v>
@@ -8049,12 +7865,16 @@
         <f t="shared" si="2"/>
         <v>5854.7999999999993</v>
       </c>
+      <c r="Q11" s="40"/>
+      <c r="R11" s="40"/>
+      <c r="S11" s="40"/>
+      <c r="T11" s="40"/>
     </row>
-    <row r="12" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3101699/79</v>
+        <v>3101-699/79</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>7</v>
@@ -8100,12 +7920,16 @@
         <f t="shared" si="2"/>
         <v>30249.8</v>
       </c>
+      <c r="Q12" s="40"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="40"/>
+      <c r="T12" s="40"/>
     </row>
-    <row r="13" spans="1:16" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3109646/79</v>
+        <v>3109-646/79</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>7</v>
@@ -8149,12 +7973,16 @@
         <f t="shared" si="2"/>
         <v>29274</v>
       </c>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
     </row>
-    <row r="14" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3147608/53</v>
+        <v>3147-608/53</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>8</v>
@@ -8198,12 +8026,16 @@
         <f t="shared" si="2"/>
         <v>9758</v>
       </c>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="40"/>
+      <c r="S14" s="40"/>
+      <c r="T14" s="40"/>
     </row>
-    <row r="15" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3147626/78</v>
+        <v>3147-626/78</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>8</v>
@@ -8243,12 +8075,16 @@
         <f t="shared" si="2"/>
         <v>11709.599999999999</v>
       </c>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="40"/>
+      <c r="S15" s="40"/>
+      <c r="T15" s="40"/>
     </row>
-    <row r="16" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3147641/76</v>
+        <v>3147-641/76</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -8290,12 +8126,16 @@
         <f t="shared" si="2"/>
         <v>12685.4</v>
       </c>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
     </row>
-    <row r="17" spans="1:16" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" ht="122.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3147685/55</v>
+        <v>3147-685/55</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>8</v>
@@ -8337,12 +8177,16 @@
         <f t="shared" si="2"/>
         <v>5854.7999999999993</v>
       </c>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="40"/>
+      <c r="T17" s="40"/>
     </row>
-    <row r="18" spans="1:16" ht="145.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" ht="145.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3155624/70</v>
+        <v>3155-624/70</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -8388,12 +8232,16 @@
         <f t="shared" si="2"/>
         <v>30249.8</v>
       </c>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="40"/>
+      <c r="S18" s="40"/>
+      <c r="T18" s="40"/>
     </row>
-    <row r="19" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3155657/27</v>
+        <v>3155-657/27</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>7</v>
@@ -8439,12 +8287,16 @@
         <f t="shared" si="2"/>
         <v>59523.799999999996</v>
       </c>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
     </row>
-    <row r="20" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3190608/53</v>
+        <v>3190-608/53</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>7</v>
@@ -8486,12 +8338,16 @@
         <f t="shared" si="2"/>
         <v>8782.1999999999989</v>
       </c>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="40"/>
+      <c r="S20" s="40"/>
+      <c r="T20" s="40"/>
     </row>
-    <row r="21" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3190630/77</v>
+        <v>3190-630/77</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>7</v>
@@ -8535,12 +8391,16 @@
         <f t="shared" si="2"/>
         <v>9758</v>
       </c>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="40"/>
+      <c r="S21" s="40"/>
+      <c r="T21" s="40"/>
     </row>
-    <row r="22" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3190652/72</v>
+        <v>3190-652/72</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>7</v>
@@ -8576,12 +8436,16 @@
         <f t="shared" si="2"/>
         <v>17564.399999999998</v>
       </c>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
     </row>
-    <row r="23" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3190657/27</v>
+        <v>3190-657/27</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>7</v>
@@ -8627,12 +8491,16 @@
         <f t="shared" si="2"/>
         <v>30249.8</v>
       </c>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="40"/>
+      <c r="S23" s="40"/>
+      <c r="T23" s="40"/>
     </row>
-    <row r="24" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3190684/29</v>
+        <v>3190-684/29</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>7</v>
@@ -8674,12 +8542,16 @@
         <f t="shared" si="2"/>
         <v>5854.7999999999993</v>
       </c>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="40"/>
+      <c r="S24" s="40"/>
+      <c r="T24" s="40"/>
     </row>
-    <row r="25" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3190685/15</v>
+        <v>3190-685/15</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>7</v>
@@ -8719,12 +8591,16 @@
         <f t="shared" si="2"/>
         <v>4879</v>
       </c>
+      <c r="Q25" s="40"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="40"/>
     </row>
-    <row r="26" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3190685/55</v>
+        <v>3190-685/55</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>7</v>
@@ -8766,12 +8642,16 @@
         <f t="shared" si="2"/>
         <v>5854.7999999999993</v>
       </c>
+      <c r="Q26" s="40"/>
+      <c r="R26" s="40"/>
+      <c r="S26" s="40"/>
+      <c r="T26" s="40"/>
     </row>
-    <row r="27" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3190699/51</v>
+        <v>3190-699/51</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>7</v>
@@ -8811,12 +8691,16 @@
         <f t="shared" si="2"/>
         <v>24395</v>
       </c>
+      <c r="Q27" s="40"/>
+      <c r="R27" s="40"/>
+      <c r="S27" s="40"/>
+      <c r="T27" s="40"/>
     </row>
-    <row r="28" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3190709/21</v>
+        <v>3190-709/21</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>7</v>
@@ -8856,12 +8740,16 @@
         <f t="shared" si="2"/>
         <v>22443.399999999998</v>
       </c>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
     </row>
-    <row r="29" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>319079</v>
+        <v>3190-79</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -8905,12 +8793,16 @@
         <f t="shared" si="2"/>
         <v>24395</v>
       </c>
+      <c r="Q29" s="40"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="40"/>
     </row>
-    <row r="30" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3122640/79</v>
+        <v>3122-640/79</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>9</v>
@@ -8954,12 +8846,16 @@
         <f t="shared" si="2"/>
         <v>9758</v>
       </c>
+      <c r="Q30" s="40"/>
+      <c r="R30" s="40"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
     </row>
-    <row r="31" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3125619/23</v>
+        <v>3125-619/23</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>9</v>
@@ -9003,12 +8899,16 @@
         <f t="shared" si="2"/>
         <v>9758</v>
       </c>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
     </row>
-    <row r="32" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3125624/25</v>
+        <v>3125-624/25</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>9</v>
@@ -9052,12 +8952,16 @@
         <f t="shared" si="2"/>
         <v>6830.5999999999995</v>
       </c>
+      <c r="Q32" s="40"/>
+      <c r="R32" s="40"/>
+      <c r="S32" s="40"/>
+      <c r="T32" s="40"/>
     </row>
-    <row r="33" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3125630/77</v>
+        <v>3125-630/77</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>9</v>
@@ -9101,12 +9005,16 @@
         <f t="shared" si="2"/>
         <v>6830.5999999999995</v>
       </c>
+      <c r="Q33" s="40"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="40"/>
     </row>
-    <row r="34" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3125640/71</v>
+        <v>3125-640/71</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>9</v>
@@ -9150,12 +9058,16 @@
         <f t="shared" si="2"/>
         <v>9758</v>
       </c>
+      <c r="Q34" s="40"/>
+      <c r="R34" s="40"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
     </row>
-    <row r="35" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3125657/27</v>
+        <v>3125-657/27</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>9</v>
@@ -9199,12 +9111,16 @@
         <f t="shared" si="2"/>
         <v>9758</v>
       </c>
+      <c r="Q35" s="40"/>
+      <c r="R35" s="40"/>
+      <c r="S35" s="40"/>
+      <c r="T35" s="40"/>
     </row>
-    <row r="36" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3125678/76</v>
+        <v>3125-678/76</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>9</v>
@@ -9246,113 +9162,115 @@
         <f t="shared" si="2"/>
         <v>12685.4</v>
       </c>
+      <c r="Q36" s="40"/>
+      <c r="R36" s="40"/>
+      <c r="S36" s="40"/>
+      <c r="T36" s="40"/>
     </row>
-    <row r="37" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
+    <row r="37" spans="1:20" s="39" customFormat="1" ht="144" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="35"/>
       <c r="B37" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>3125699/51</v>
-      </c>
-      <c r="C37" s="3" t="s">
+        <v>3125-699/51</v>
+      </c>
+      <c r="C37" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="36">
         <v>3125</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="7">
+      <c r="G37" s="37">
         <v>975.8</v>
       </c>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2">
+      <c r="H37" s="35"/>
+      <c r="I37" s="35">
         <v>2</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="35">
         <v>3</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="35">
         <v>4</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="35">
         <v>3</v>
       </c>
-      <c r="M37" s="2">
+      <c r="M37" s="35">
         <v>2</v>
       </c>
-      <c r="N37" s="2">
-        <v>1</v>
-      </c>
-      <c r="O37" s="2">
+      <c r="N37" s="35">
+        <v>1</v>
+      </c>
+      <c r="O37" s="35">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
-      <c r="P37" s="12">
+      <c r="P37" s="38">
         <f t="shared" si="2"/>
         <v>14637</v>
       </c>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
     </row>
-    <row r="38" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="3" t="str">
-        <f>D38&amp;E38</f>
-        <v>3030630/23</v>
-      </c>
-      <c r="C38" s="3" t="s">
+    <row r="38" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="31"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="29">
         <v>3030</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G38" s="7">
+      <c r="G38" s="32">
         <v>975.8</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="H38" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="33">
         <v>2</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="33">
         <v>5</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="33">
         <v>5</v>
       </c>
-      <c r="M38" s="2">
+      <c r="M38" s="33">
         <v>2</v>
       </c>
-      <c r="N38" s="2">
-        <v>1</v>
-      </c>
-      <c r="O38" s="2">
+      <c r="N38" s="33">
+        <v>1</v>
+      </c>
+      <c r="O38" s="33">
         <f t="shared" ref="O38:O53" si="4">SUM(H38:N38)</f>
         <v>15</v>
       </c>
-      <c r="P38" s="12">
+      <c r="P38" s="34">
         <f t="shared" ref="P38:P53" si="5">SUM(H38:N38)*G38</f>
         <v>14637</v>
       </c>
     </row>
-    <row r="39" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
-      <c r="B39" s="3" t="str">
-        <f>D39&amp;E39</f>
-        <v>3030641/76</v>
-      </c>
+      <c r="B39" s="3"/>
       <c r="C39" s="3" t="s">
         <v>7</v>
       </c>
@@ -9398,12 +9316,9 @@
         <v>23419.199999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:16" ht="86.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" ht="86.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
-      <c r="B40" s="3" t="str">
-        <f>D40&amp;E40</f>
-        <v>3035637/70</v>
-      </c>
+      <c r="B40" s="3"/>
       <c r="C40" s="3" t="s">
         <v>7</v>
       </c>
@@ -9449,12 +9364,9 @@
         <v>21467.599999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
-      <c r="B41" s="3" t="str">
-        <f>D41&amp;E41</f>
-        <v>3035641/76</v>
-      </c>
+      <c r="B41" s="3"/>
       <c r="C41" s="3" t="s">
         <v>7</v>
       </c>
@@ -9500,12 +9412,9 @@
         <v>15612.8</v>
       </c>
     </row>
-    <row r="42" spans="1:16" ht="89.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" ht="89.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
-      <c r="B42" s="3" t="str">
-        <f>D42&amp;E42</f>
-        <v>3035644/74</v>
-      </c>
+      <c r="B42" s="3"/>
       <c r="C42" s="3" t="s">
         <v>7</v>
       </c>
@@ -9551,12 +9460,9 @@
         <v>18540.2</v>
       </c>
     </row>
-    <row r="43" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
-      <c r="B43" s="3" t="str">
-        <f>D43&amp;E43</f>
-        <v>3080640/77</v>
-      </c>
+      <c r="B43" s="3"/>
       <c r="C43" s="3" t="s">
         <v>7</v>
       </c>
@@ -9602,12 +9508,9 @@
         <v>11709.599999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
-      <c r="B44" s="3" t="str">
-        <f>D44&amp;E44</f>
-        <v>3080641/76</v>
-      </c>
+      <c r="B44" s="3"/>
       <c r="C44" s="3" t="s">
         <v>7</v>
       </c>
@@ -9653,12 +9556,9 @@
         <v>17564.399999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
-      <c r="B45" s="3" t="str">
-        <f>D45&amp;E45</f>
-        <v>3080642/79</v>
-      </c>
+      <c r="B45" s="3"/>
       <c r="C45" s="3" t="s">
         <v>7</v>
       </c>
@@ -9704,12 +9604,9 @@
         <v>23419.199999999997</v>
       </c>
     </row>
-    <row r="46" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="14"/>
-      <c r="B46" s="3" t="str">
-        <f>D46&amp;E46</f>
-        <v>3101624/91</v>
-      </c>
+      <c r="B46" s="3"/>
       <c r="C46" s="3" t="s">
         <v>7</v>
       </c>
@@ -9755,12 +9652,9 @@
         <v>78064</v>
       </c>
     </row>
-    <row r="47" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
-      <c r="B47" s="3" t="str">
-        <f>D47&amp;E47</f>
-        <v>3101637/70</v>
-      </c>
+      <c r="B47" s="3"/>
       <c r="C47" s="3" t="s">
         <v>7</v>
       </c>
@@ -9806,12 +9700,9 @@
         <v>91725.2</v>
       </c>
     </row>
-    <row r="48" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="14"/>
-      <c r="B48" s="3" t="str">
-        <f>D48&amp;E48</f>
-        <v>3101644/74</v>
-      </c>
+      <c r="B48" s="3"/>
       <c r="C48" s="3" t="s">
         <v>7</v>
       </c>
@@ -9859,10 +9750,7 @@
     </row>
     <row r="49" spans="1:16" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
-      <c r="B49" s="3" t="str">
-        <f>D49&amp;E49</f>
-        <v>3101667/57</v>
-      </c>
+      <c r="B49" s="3"/>
       <c r="C49" s="3" t="s">
         <v>7</v>
       </c>
@@ -9910,10 +9798,7 @@
     </row>
     <row r="50" spans="1:16" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
-      <c r="B50" s="3" t="str">
-        <f>D50&amp;E50</f>
-        <v>3109622/22</v>
-      </c>
+      <c r="B50" s="3"/>
       <c r="C50" s="3" t="s">
         <v>7</v>
       </c>
@@ -9961,10 +9846,7 @@
     </row>
     <row r="51" spans="1:16" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20"/>
-      <c r="B51" s="3" t="str">
-        <f>D51&amp;E51</f>
-        <v>3109637/70</v>
-      </c>
+      <c r="B51" s="3"/>
       <c r="C51" s="3" t="s">
         <v>7</v>
       </c>
@@ -10012,10 +9894,7 @@
     </row>
     <row r="52" spans="1:16" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20"/>
-      <c r="B52" s="3" t="str">
-        <f>D52&amp;E52</f>
-        <v>3109667/57</v>
-      </c>
+      <c r="B52" s="3"/>
       <c r="C52" s="3" t="s">
         <v>7</v>
       </c>
@@ -10063,10 +9942,7 @@
     </row>
     <row r="53" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
-      <c r="B53" s="3" t="str">
-        <f>D53&amp;E53</f>
-        <v>3122624/91</v>
-      </c>
+      <c r="B53" s="3"/>
       <c r="C53" s="3" t="s">
         <v>9</v>
       </c>
@@ -10114,10 +9990,7 @@
     </row>
     <row r="54" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14"/>
-      <c r="B54" s="3" t="str">
-        <f>D54&amp;E54</f>
-        <v>3125637/70</v>
-      </c>
+      <c r="B54" s="3"/>
       <c r="C54" s="3" t="s">
         <v>9</v>
       </c>
@@ -10165,10 +10038,7 @@
     </row>
     <row r="55" spans="1:16" ht="103.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20"/>
-      <c r="B55" s="3" t="str">
-        <f>D55&amp;E55</f>
-        <v>3125641/76</v>
-      </c>
+      <c r="B55" s="3"/>
       <c r="C55" s="3" t="s">
         <v>9</v>
       </c>
@@ -10216,10 +10086,7 @@
     </row>
     <row r="56" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="14"/>
-      <c r="B56" s="3" t="str">
-        <f>D56&amp;E56</f>
-        <v>3125667/57</v>
-      </c>
+      <c r="B56" s="3"/>
       <c r="C56" s="3" t="s">
         <v>9</v>
       </c>
@@ -10267,10 +10134,7 @@
     </row>
     <row r="57" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="14"/>
-      <c r="B57" s="3" t="str">
-        <f>D57&amp;E57</f>
-        <v>3125699/78</v>
-      </c>
+      <c r="B57" s="3"/>
       <c r="C57" s="3" t="s">
         <v>9</v>
       </c>
@@ -10318,10 +10182,7 @@
     </row>
     <row r="58" spans="1:16" ht="96.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20"/>
-      <c r="B58" s="3" t="str">
-        <f>D58&amp;E58</f>
-        <v>3142624/91</v>
-      </c>
+      <c r="B58" s="3"/>
       <c r="C58" s="3" t="s">
         <v>47</v>
       </c>
@@ -10369,10 +10230,7 @@
     </row>
     <row r="59" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
-      <c r="B59" s="3" t="str">
-        <f>D59&amp;E59</f>
-        <v>3142630/23</v>
-      </c>
+      <c r="B59" s="3"/>
       <c r="C59" s="3" t="s">
         <v>47</v>
       </c>
@@ -10420,10 +10278,7 @@
     </row>
     <row r="60" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="14"/>
-      <c r="B60" s="3" t="str">
-        <f>D60&amp;E60</f>
-        <v>3142641/76</v>
-      </c>
+      <c r="B60" s="3"/>
       <c r="C60" s="3" t="s">
         <v>47</v>
       </c>
@@ -10471,10 +10326,7 @@
     </row>
     <row r="61" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="14"/>
-      <c r="B61" s="3" t="str">
-        <f>D61&amp;E61</f>
-        <v>3147640/77</v>
-      </c>
+      <c r="B61" s="3"/>
       <c r="C61" s="3" t="s">
         <v>8</v>
       </c>
@@ -10522,10 +10374,7 @@
     </row>
     <row r="62" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="14"/>
-      <c r="B62" s="3" t="str">
-        <f>D62&amp;E62</f>
-        <v>3147642/70</v>
-      </c>
+      <c r="B62" s="3"/>
       <c r="C62" s="3" t="s">
         <v>8</v>
       </c>
@@ -10573,10 +10422,7 @@
     </row>
     <row r="63" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
-      <c r="B63" s="3" t="str">
-        <f>D63&amp;E63</f>
-        <v>3190624/91</v>
-      </c>
+      <c r="B63" s="3"/>
       <c r="C63" s="3" t="s">
         <v>7</v>
       </c>
@@ -10624,10 +10470,7 @@
     </row>
     <row r="64" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
-      <c r="B64" s="3" t="str">
-        <f>D64&amp;E64</f>
-        <v>3190630/23</v>
-      </c>
+      <c r="B64" s="3"/>
       <c r="C64" s="3" t="s">
         <v>7</v>
       </c>
@@ -10675,10 +10518,7 @@
     </row>
     <row r="65" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
-      <c r="B65" s="3" t="str">
-        <f>D65&amp;E65</f>
-        <v>3190640/77</v>
-      </c>
+      <c r="B65" s="3"/>
       <c r="C65" s="3" t="s">
         <v>7</v>
       </c>
@@ -10726,10 +10566,7 @@
     </row>
     <row r="66" spans="1:16" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20"/>
-      <c r="B66" s="3" t="str">
-        <f>D66&amp;E66</f>
-        <v>3190699/78</v>
-      </c>
+      <c r="B66" s="3"/>
       <c r="C66" s="3" t="s">
         <v>7</v>
       </c>
@@ -10777,10 +10614,7 @@
     </row>
     <row r="67" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="14"/>
-      <c r="B67" s="3" t="str">
-        <f>D67&amp;E67</f>
-        <v>3215624/91</v>
-      </c>
+      <c r="B67" s="3"/>
       <c r="C67" s="3" t="s">
         <v>4</v>
       </c>
@@ -10828,10 +10662,7 @@
     </row>
     <row r="68" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
-      <c r="B68" s="3" t="str">
-        <f>D68&amp;E68</f>
-        <v>3215625/20</v>
-      </c>
+      <c r="B68" s="3"/>
       <c r="C68" s="3" t="s">
         <v>4</v>
       </c>
@@ -10879,10 +10710,7 @@
     </row>
     <row r="69" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="14"/>
-      <c r="B69" s="3" t="str">
-        <f>D69&amp;E69</f>
-        <v>3215630/23</v>
-      </c>
+      <c r="B69" s="3"/>
       <c r="C69" s="3" t="s">
         <v>4</v>
       </c>
@@ -10930,10 +10758,7 @@
     </row>
     <row r="70" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="14"/>
-      <c r="B70" s="3" t="str">
-        <f>D70&amp;E70</f>
-        <v>3215641/76</v>
-      </c>
+      <c r="B70" s="3"/>
       <c r="C70" s="3" t="s">
         <v>4</v>
       </c>
@@ -10981,10 +10806,7 @@
     </row>
     <row r="71" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
-      <c r="B71" s="3" t="str">
-        <f>D71&amp;E71</f>
-        <v>3215644/74</v>
-      </c>
+      <c r="B71" s="3"/>
       <c r="C71" s="3" t="s">
         <v>4</v>
       </c>
@@ -11032,10 +10854,7 @@
     </row>
     <row r="72" spans="1:16" ht="88.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20"/>
-      <c r="B72" s="3" t="str">
-        <f>D72&amp;E72</f>
-        <v>3216625/20</v>
-      </c>
+      <c r="B72" s="3"/>
       <c r="C72" s="3" t="s">
         <v>4</v>
       </c>
@@ -11083,10 +10902,7 @@
     </row>
     <row r="73" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
-      <c r="B73" s="3" t="str">
-        <f>D73&amp;E73</f>
-        <v>3243624/91</v>
-      </c>
+      <c r="B73" s="3"/>
       <c r="C73" s="3" t="s">
         <v>50</v>
       </c>
@@ -11134,10 +10950,7 @@
     </row>
     <row r="74" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
-      <c r="B74" s="3" t="str">
-        <f>D74&amp;E74</f>
-        <v>3243631/90</v>
-      </c>
+      <c r="B74" s="3"/>
       <c r="C74" s="3" t="s">
         <v>50</v>
       </c>
@@ -11185,10 +10998,7 @@
     </row>
     <row r="75" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
-      <c r="B75" s="3" t="str">
-        <f>D75&amp;E75</f>
-        <v>3243641/76</v>
-      </c>
+      <c r="B75" s="3"/>
       <c r="C75" s="3" t="s">
         <v>50</v>
       </c>
@@ -11236,10 +11046,7 @@
     </row>
     <row r="76" spans="1:16" ht="96.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="20"/>
-      <c r="B76" s="3" t="str">
-        <f>D76&amp;E76</f>
-        <v>3276624/91</v>
-      </c>
+      <c r="B76" s="3"/>
       <c r="C76" s="3" t="s">
         <v>4</v>
       </c>
@@ -11287,10 +11094,7 @@
     </row>
     <row r="77" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
-      <c r="B77" s="3" t="str">
-        <f>D77&amp;E77</f>
-        <v>3363624/91</v>
-      </c>
+      <c r="B77" s="3"/>
       <c r="C77" s="3" t="s">
         <v>52</v>
       </c>
@@ -11338,10 +11142,7 @@
     </row>
     <row r="78" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
-      <c r="B78" s="3" t="str">
-        <f>D78&amp;E78</f>
-        <v>3363625/20</v>
-      </c>
+      <c r="B78" s="3"/>
       <c r="C78" s="3" t="s">
         <v>52</v>
       </c>
@@ -11389,10 +11190,7 @@
     </row>
     <row r="79" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="14"/>
-      <c r="B79" s="3" t="str">
-        <f>D79&amp;E79</f>
-        <v>3363630/23</v>
-      </c>
+      <c r="B79" s="3"/>
       <c r="C79" s="3" t="s">
         <v>52</v>
       </c>
@@ -11440,10 +11238,7 @@
     </row>
     <row r="80" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
-      <c r="B80" s="3" t="str">
-        <f>D80&amp;E80</f>
-        <v>3363632/23</v>
-      </c>
+      <c r="B80" s="3"/>
       <c r="C80" s="3" t="s">
         <v>52</v>
       </c>
@@ -11491,10 +11286,7 @@
     </row>
     <row r="81" spans="1:16" ht="104.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="20"/>
-      <c r="B81" s="3" t="str">
-        <f>D81&amp;E81</f>
-        <v>3363641/76</v>
-      </c>
+      <c r="B81" s="3"/>
       <c r="C81" s="3" t="s">
         <v>52</v>
       </c>
@@ -11541,31 +11333,31 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="Q2:T2"/>
+  </mergeCells>
   <conditionalFormatting sqref="O2:O37 O82:O1048576">
-    <cfRule type="cellIs" dxfId="34" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:N37">
-    <cfRule type="expression" dxfId="33" priority="22">
+    <cfRule type="expression" dxfId="19" priority="22">
       <formula>OR(H2&gt;#REF!,#REF!="")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B37 B82:B1048576">
+  <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="18" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38:O81">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:N81">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>OR(H38&gt;#REF!,#REF!="")</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B38:B81">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="55" fitToHeight="4" orientation="portrait" r:id="rId1"/>
@@ -11578,11 +11370,11 @@
   <sheetPr codeName="Лист3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30:B31"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11594,13 +11386,14 @@
     <col min="5" max="5" width="7.5703125" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5703125" style="19" customWidth="1"/>
     <col min="7" max="7" width="10" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="5.7109375" style="19" customWidth="1"/>
+    <col min="8" max="14" width="10.7109375" style="19" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.140625" style="19" customWidth="1"/>
     <col min="16" max="16" width="15" style="22" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="19"/>
+    <col min="17" max="17" width="12" style="19" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -11647,12 +11440,13 @@
       <c r="P1" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="Q1" s="11"/>
     </row>
-    <row r="2" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="15" t="str">
-        <f>D2&amp;E2</f>
-        <v>3030630/23</v>
+        <f>D2&amp;"-"&amp;E2</f>
+        <v>3030-630/23</v>
       </c>
       <c r="C2" s="15" t="s">
         <v>7</v>
@@ -11698,12 +11492,16 @@
         <f t="shared" ref="P2:P17" si="1">SUM(H2:N2)*G2</f>
         <v>14637</v>
       </c>
+      <c r="Q2" s="19">
+        <f>_xlfn.XLOOKUP(B2,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
       <c r="B3" s="15" t="str">
-        <f>D3&amp;E3</f>
-        <v>3030641/76</v>
+        <f t="shared" ref="B3:B46" si="2">D3&amp;"-"&amp;E3</f>
+        <v>3030-641/76</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>7</v>
@@ -11749,12 +11547,16 @@
         <f t="shared" si="1"/>
         <v>23419.199999999997</v>
       </c>
+      <c r="Q3" s="19">
+        <f>_xlfn.XLOOKUP(B3,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="15" t="str">
-        <f>D4&amp;E4</f>
-        <v>3035637/70</v>
+        <f t="shared" si="2"/>
+        <v>3035-637/70</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>7</v>
@@ -11800,12 +11602,16 @@
         <f t="shared" si="1"/>
         <v>21467.599999999999</v>
       </c>
+      <c r="Q4" s="19">
+        <f>_xlfn.XLOOKUP(B4,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14"/>
       <c r="B5" s="15" t="str">
-        <f>D5&amp;E5</f>
-        <v>3035641/76</v>
+        <f t="shared" si="2"/>
+        <v>3035-641/76</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>7</v>
@@ -11851,12 +11657,16 @@
         <f t="shared" si="1"/>
         <v>15612.8</v>
       </c>
+      <c r="Q5" s="19">
+        <f>_xlfn.XLOOKUP(B5,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="101.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20"/>
       <c r="B6" s="15" t="str">
-        <f>D6&amp;E6</f>
-        <v>3035644/74</v>
+        <f t="shared" si="2"/>
+        <v>3035-644/74</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>7</v>
@@ -11902,12 +11712,16 @@
         <f t="shared" si="1"/>
         <v>18540.2</v>
       </c>
+      <c r="Q6" s="19">
+        <f>_xlfn.XLOOKUP(B6,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="132.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="15" t="str">
-        <f>D7&amp;E7</f>
-        <v>3080640/77</v>
+        <f t="shared" si="2"/>
+        <v>3080-640/77</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>7</v>
@@ -11953,12 +11767,16 @@
         <f t="shared" si="1"/>
         <v>11709.599999999999</v>
       </c>
+      <c r="Q7" s="19">
+        <f>_xlfn.XLOOKUP(B7,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="15" t="str">
-        <f>D8&amp;E8</f>
-        <v>3080641/76</v>
+        <f t="shared" si="2"/>
+        <v>3080-641/76</v>
       </c>
       <c r="C8" s="15" t="s">
         <v>7</v>
@@ -12004,12 +11822,16 @@
         <f t="shared" si="1"/>
         <v>17564.399999999998</v>
       </c>
+      <c r="Q8" s="19">
+        <f>_xlfn.XLOOKUP(B8,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
       <c r="B9" s="15" t="str">
-        <f>D9&amp;E9</f>
-        <v>3080642/79</v>
+        <f t="shared" si="2"/>
+        <v>3080-642/79</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>7</v>
@@ -12055,12 +11877,16 @@
         <f t="shared" si="1"/>
         <v>23419.199999999997</v>
       </c>
+      <c r="Q9" s="19">
+        <f>_xlfn.XLOOKUP(B9,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="15" t="str">
-        <f>D10&amp;E10</f>
-        <v>3101624/91</v>
+        <f t="shared" si="2"/>
+        <v>3101-624/91</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>7</v>
@@ -12106,12 +11932,16 @@
         <f t="shared" si="1"/>
         <v>78064</v>
       </c>
+      <c r="Q10" s="19">
+        <f>_xlfn.XLOOKUP(B10,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:16" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="143.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="15" t="str">
-        <f>D11&amp;E11</f>
-        <v>3101637/70</v>
+        <f t="shared" si="2"/>
+        <v>3101-637/70</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>7</v>
@@ -12157,12 +11987,16 @@
         <f t="shared" si="1"/>
         <v>91725.2</v>
       </c>
+      <c r="Q11" s="19">
+        <f>_xlfn.XLOOKUP(B11,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:16" ht="145.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="145.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="15" t="str">
-        <f>D12&amp;E12</f>
-        <v>3101644/74</v>
+        <f t="shared" si="2"/>
+        <v>3101-644/74</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>7</v>
@@ -12208,14 +12042,18 @@
         <f t="shared" si="1"/>
         <v>40983.599999999999</v>
       </c>
+      <c r="Q12" s="19">
+        <f>_xlfn.XLOOKUP(B12,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>43</v>
       </c>
       <c r="B13" s="15" t="str">
-        <f>D13&amp;E13</f>
-        <v>3101667/57</v>
+        <f t="shared" si="2"/>
+        <v>3101-667/57</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>7</v>
@@ -12261,12 +12099,16 @@
         <f t="shared" si="1"/>
         <v>56596.399999999994</v>
       </c>
+      <c r="Q13" s="19">
+        <f>_xlfn.XLOOKUP(B13,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="15" t="str">
-        <f>D14&amp;E14</f>
-        <v>3109622/22</v>
+        <f t="shared" si="2"/>
+        <v>3109-622/22</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>7</v>
@@ -12312,12 +12154,16 @@
         <f t="shared" si="1"/>
         <v>20491.8</v>
       </c>
+      <c r="Q14" s="19">
+        <f>_xlfn.XLOOKUP(B14,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20"/>
       <c r="B15" s="15" t="str">
-        <f>D15&amp;E15</f>
-        <v>3109637/70</v>
+        <f t="shared" si="2"/>
+        <v>3109-637/70</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>7</v>
@@ -12363,12 +12209,16 @@
         <f t="shared" si="1"/>
         <v>152224.79999999999</v>
       </c>
+      <c r="Q15" s="19">
+        <f>_xlfn.XLOOKUP(B15,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20"/>
       <c r="B16" s="15" t="str">
-        <f>D16&amp;E16</f>
-        <v>3109667/57</v>
+        <f t="shared" si="2"/>
+        <v>3109-667/57</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>7</v>
@@ -12414,12 +12264,16 @@
         <f t="shared" si="1"/>
         <v>78064</v>
       </c>
+      <c r="Q16" s="19">
+        <f>_xlfn.XLOOKUP(B16,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:16" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="15" t="str">
-        <f>D17&amp;E17</f>
-        <v>3122624/91</v>
+        <f t="shared" si="2"/>
+        <v>3122-624/91</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>9</v>
@@ -12465,12 +12319,16 @@
         <f t="shared" si="1"/>
         <v>15612.8</v>
       </c>
+      <c r="Q17" s="19">
+        <f>_xlfn.XLOOKUP(B17,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:16" customFormat="1" ht="146.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" customFormat="1" ht="146.44999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="15" t="str">
-        <f>D18&amp;E18</f>
-        <v>3125637/70</v>
+        <f t="shared" si="2"/>
+        <v>3125-637/70</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>9</v>
@@ -12509,19 +12367,23 @@
         <v>4</v>
       </c>
       <c r="O18" s="2">
-        <f t="shared" ref="O18:O29" si="2">SUM(H18:N18)</f>
+        <f t="shared" ref="O18:O29" si="3">SUM(H18:N18)</f>
         <v>64</v>
       </c>
       <c r="P18" s="18">
-        <f t="shared" ref="P18:P46" si="3">SUM(H18:N18)*G18</f>
+        <f t="shared" ref="P18:P46" si="4">SUM(H18:N18)*G18</f>
         <v>62451.199999999997</v>
       </c>
+      <c r="Q18" s="19">
+        <f>_xlfn.XLOOKUP(B18,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:16" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="15" t="str">
-        <f>D19&amp;E19</f>
-        <v>3125641/76</v>
+        <f t="shared" si="2"/>
+        <v>3125-641/76</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>9</v>
@@ -12560,19 +12422,23 @@
         <v>1</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="P19" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13661.199999999999</v>
       </c>
+      <c r="Q19" s="19">
+        <f>_xlfn.XLOOKUP(B19,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:16" customFormat="1" ht="145.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" customFormat="1" ht="145.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14"/>
       <c r="B20" s="15" t="str">
-        <f>D20&amp;E20</f>
-        <v>3125667/57</v>
+        <f t="shared" si="2"/>
+        <v>3125-667/57</v>
       </c>
       <c r="C20" s="15" t="s">
         <v>9</v>
@@ -12611,19 +12477,23 @@
         <v>2</v>
       </c>
       <c r="O20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="P20" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53669</v>
       </c>
+      <c r="Q20" s="19">
+        <f>_xlfn.XLOOKUP(B20,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:16" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" customFormat="1" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14"/>
       <c r="B21" s="15" t="str">
-        <f>D21&amp;E21</f>
-        <v>3125699/78</v>
+        <f t="shared" si="2"/>
+        <v>3125-699/78</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>9</v>
@@ -12662,19 +12532,23 @@
         <v>4</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="P21" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53669</v>
       </c>
+      <c r="Q21" s="19">
+        <f>_xlfn.XLOOKUP(B21,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:16" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="15" t="str">
-        <f>D22&amp;E22</f>
-        <v>3142624/91</v>
+        <f t="shared" si="2"/>
+        <v>3142-624/91</v>
       </c>
       <c r="C22" s="15" t="s">
         <v>47</v>
@@ -12713,19 +12587,23 @@
         <v>2</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="P22" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29274</v>
       </c>
+      <c r="Q22" s="19">
+        <f>_xlfn.XLOOKUP(B22,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:16" customFormat="1" ht="145.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" customFormat="1" ht="145.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14"/>
       <c r="B23" s="15" t="str">
-        <f>D23&amp;E23</f>
-        <v>3142630/23</v>
+        <f t="shared" si="2"/>
+        <v>3142-630/23</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>47</v>
@@ -12764,19 +12642,23 @@
         <v>37</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="P23" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8782.1999999999989</v>
       </c>
+      <c r="Q23" s="19">
+        <f>_xlfn.XLOOKUP(B23,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" spans="1:16" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14"/>
       <c r="B24" s="15" t="str">
-        <f>D24&amp;E24</f>
-        <v>3142641/76</v>
+        <f t="shared" si="2"/>
+        <v>3142-641/76</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>47</v>
@@ -12815,19 +12697,23 @@
         <v>2</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="P24" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37080.400000000001</v>
       </c>
+      <c r="Q24" s="19">
+        <f>_xlfn.XLOOKUP(B24,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:16" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14"/>
       <c r="B25" s="15" t="str">
-        <f>D25&amp;E25</f>
-        <v>3147640/77</v>
+        <f t="shared" si="2"/>
+        <v>3147-640/77</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>8</v>
@@ -12866,19 +12752,23 @@
         <v>37</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="P25" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40983.599999999999</v>
       </c>
+      <c r="Q25" s="19">
+        <f>_xlfn.XLOOKUP(B25,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:16" customFormat="1" ht="142.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" customFormat="1" ht="142.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14"/>
       <c r="B26" s="15" t="str">
-        <f>D26&amp;E26</f>
-        <v>3147642/70</v>
+        <f t="shared" si="2"/>
+        <v>3147-642/70</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>8</v>
@@ -12917,19 +12807,23 @@
         <v>37</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="P26" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45862.6</v>
       </c>
+      <c r="Q26" s="19">
+        <f>_xlfn.XLOOKUP(B26,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:16" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20"/>
       <c r="B27" s="15" t="str">
-        <f>D27&amp;E27</f>
-        <v>3155657/27</v>
+        <f t="shared" si="2"/>
+        <v>3155-657/27</v>
       </c>
       <c r="C27" s="15" t="s">
         <v>7</v>
@@ -12968,19 +12862,23 @@
         <v>37</v>
       </c>
       <c r="O27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="P27" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38056.199999999997</v>
       </c>
+      <c r="Q27" s="19">
+        <f>_xlfn.XLOOKUP(B27,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>61</v>
+      </c>
     </row>
-    <row r="28" spans="1:16" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14"/>
       <c r="B28" s="15" t="str">
-        <f>D28&amp;E28</f>
-        <v>3190624/91</v>
+        <f t="shared" si="2"/>
+        <v>3190-624/91</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>7</v>
@@ -13019,19 +12917,23 @@
         <v>2</v>
       </c>
       <c r="O28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>147</v>
       </c>
       <c r="P28" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>143442.6</v>
       </c>
+      <c r="Q28" s="19">
+        <f>_xlfn.XLOOKUP(B28,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" spans="1:16" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="15" t="str">
-        <f>D29&amp;E29</f>
-        <v>3190630/23</v>
+        <f t="shared" si="2"/>
+        <v>3190-630/23</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>7</v>
@@ -13070,19 +12972,23 @@
         <v>9</v>
       </c>
       <c r="O29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>151</v>
       </c>
       <c r="P29" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>147345.79999999999</v>
       </c>
+      <c r="Q29" s="19">
+        <f>_xlfn.XLOOKUP(B29,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" spans="1:16" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14"/>
       <c r="B30" s="15" t="str">
-        <f>D30&amp;E30</f>
-        <v>3190640/77</v>
+        <f t="shared" si="2"/>
+        <v>3190-640/77</v>
       </c>
       <c r="C30" s="15" t="s">
         <v>7</v>
@@ -13121,19 +13027,23 @@
         <v>4</v>
       </c>
       <c r="O30" s="2">
-        <f t="shared" ref="O30:O46" si="4">SUM(H30:N30)</f>
+        <f t="shared" ref="O30:O46" si="5">SUM(H30:N30)</f>
         <v>66</v>
       </c>
       <c r="P30" s="18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64402.799999999996</v>
       </c>
+      <c r="Q30" s="19">
+        <f>_xlfn.XLOOKUP(B30,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" spans="1:16" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20"/>
       <c r="B31" s="15" t="str">
-        <f>D31&amp;E31</f>
-        <v>3190699/78</v>
+        <f t="shared" si="2"/>
+        <v>3190-699/78</v>
       </c>
       <c r="C31" s="15" t="s">
         <v>7</v>
@@ -13172,19 +13082,23 @@
         <v>37</v>
       </c>
       <c r="O31" s="2">
+        <f t="shared" si="5"/>
+        <v>127</v>
+      </c>
+      <c r="P31" s="18">
         <f t="shared" si="4"/>
-        <v>127</v>
-      </c>
-      <c r="P31" s="18">
-        <f t="shared" si="3"/>
         <v>123926.59999999999</v>
       </c>
+      <c r="Q31" s="19">
+        <f>_xlfn.XLOOKUP(B31,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:16" customFormat="1" ht="145.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" customFormat="1" ht="145.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
       <c r="B32" s="15" t="str">
-        <f>D32&amp;E32</f>
-        <v>3215624/91</v>
+        <f t="shared" si="2"/>
+        <v>3215-624/91</v>
       </c>
       <c r="C32" s="15" t="s">
         <v>4</v>
@@ -13223,19 +13137,23 @@
         <v>37</v>
       </c>
       <c r="O32" s="2">
+        <f t="shared" si="5"/>
+        <v>32</v>
+      </c>
+      <c r="P32" s="18">
         <f t="shared" si="4"/>
-        <v>32</v>
-      </c>
-      <c r="P32" s="18">
-        <f t="shared" si="3"/>
         <v>31225.599999999999</v>
       </c>
+      <c r="Q32" s="19">
+        <f>_xlfn.XLOOKUP(B32,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="33" spans="1:16" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14"/>
       <c r="B33" s="15" t="str">
-        <f>D33&amp;E33</f>
-        <v>3215625/20</v>
+        <f t="shared" si="2"/>
+        <v>3215-625/20</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>4</v>
@@ -13274,19 +13192,23 @@
         <v>2</v>
       </c>
       <c r="O33" s="2">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="P33" s="18">
         <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="P33" s="18">
-        <f t="shared" si="3"/>
         <v>32201.399999999998</v>
       </c>
+      <c r="Q33" s="19">
+        <f>_xlfn.XLOOKUP(B33,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="34" spans="1:16" customFormat="1" ht="145.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" customFormat="1" ht="145.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14"/>
       <c r="B34" s="15" t="str">
-        <f>D34&amp;E34</f>
-        <v>3215630/23</v>
+        <f t="shared" si="2"/>
+        <v>3215-630/23</v>
       </c>
       <c r="C34" s="15" t="s">
         <v>4</v>
@@ -13325,19 +13247,23 @@
         <v>2</v>
       </c>
       <c r="O34" s="2">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="P34" s="18">
         <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="P34" s="18">
-        <f t="shared" si="3"/>
         <v>32201.399999999998</v>
       </c>
+      <c r="Q34" s="19">
+        <f>_xlfn.XLOOKUP(B34,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="35" spans="1:16" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14"/>
       <c r="B35" s="15" t="str">
-        <f>D35&amp;E35</f>
-        <v>3215641/76</v>
+        <f t="shared" si="2"/>
+        <v>3215-641/76</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>4</v>
@@ -13376,19 +13302,23 @@
         <v>2</v>
       </c>
       <c r="O35" s="2">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="P35" s="18">
         <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="P35" s="18">
-        <f t="shared" si="3"/>
         <v>32201.399999999998</v>
       </c>
+      <c r="Q35" s="19">
+        <f>_xlfn.XLOOKUP(B35,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="36" spans="1:16" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" customFormat="1" ht="144.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="14"/>
       <c r="B36" s="15" t="str">
-        <f>D36&amp;E36</f>
-        <v>3215644/74</v>
+        <f t="shared" si="2"/>
+        <v>3215-644/74</v>
       </c>
       <c r="C36" s="15" t="s">
         <v>4</v>
@@ -13427,19 +13357,23 @@
         <v>2</v>
       </c>
       <c r="O36" s="2">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="P36" s="18">
         <f t="shared" si="4"/>
-        <v>33</v>
-      </c>
-      <c r="P36" s="18">
-        <f t="shared" si="3"/>
         <v>32201.399999999998</v>
       </c>
+      <c r="Q36" s="19">
+        <f>_xlfn.XLOOKUP(B36,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="37" spans="1:16" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="15" t="str">
-        <f>D37&amp;E37</f>
-        <v>3216625/20</v>
+        <f t="shared" si="2"/>
+        <v>3216-625/20</v>
       </c>
       <c r="C37" s="15" t="s">
         <v>4</v>
@@ -13478,19 +13412,23 @@
         <v>37</v>
       </c>
       <c r="O37" s="2">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="P37" s="18">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="P37" s="18">
-        <f t="shared" si="3"/>
         <v>14637</v>
       </c>
+      <c r="Q37" s="19">
+        <f>_xlfn.XLOOKUP(B37,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="38" spans="1:16" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14"/>
       <c r="B38" s="15" t="str">
-        <f>D38&amp;E38</f>
-        <v>3243624/91</v>
+        <f t="shared" si="2"/>
+        <v>3243-624/91</v>
       </c>
       <c r="C38" s="15" t="s">
         <v>50</v>
@@ -13529,19 +13467,23 @@
         <v>37</v>
       </c>
       <c r="O38" s="2">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="P38" s="18">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="P38" s="18">
-        <f t="shared" si="3"/>
         <v>11709.599999999999</v>
       </c>
+      <c r="Q38" s="19">
+        <f>_xlfn.XLOOKUP(B38,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="39" spans="1:16" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14"/>
       <c r="B39" s="15" t="str">
-        <f>D39&amp;E39</f>
-        <v>3243631/90</v>
+        <f t="shared" si="2"/>
+        <v>3243-631/90</v>
       </c>
       <c r="C39" s="15" t="s">
         <v>50</v>
@@ -13580,19 +13522,23 @@
         <v>1</v>
       </c>
       <c r="O39" s="2">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="P39" s="18">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="P39" s="18">
-        <f t="shared" si="3"/>
         <v>10733.8</v>
       </c>
+      <c r="Q39" s="19">
+        <f>_xlfn.XLOOKUP(B39,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="40" spans="1:16" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14"/>
       <c r="B40" s="15" t="str">
-        <f>D40&amp;E40</f>
-        <v>3243641/76</v>
+        <f t="shared" si="2"/>
+        <v>3243-641/76</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>50</v>
@@ -13631,19 +13577,23 @@
         <v>1</v>
       </c>
       <c r="O40" s="2">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="P40" s="18">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="P40" s="18">
-        <f t="shared" si="3"/>
         <v>7806.4</v>
       </c>
+      <c r="Q40" s="19">
+        <f>_xlfn.XLOOKUP(B40,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="41" spans="1:16" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="15" t="str">
-        <f>D41&amp;E41</f>
-        <v>3276624/91</v>
+        <f t="shared" si="2"/>
+        <v>3276-624/91</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>4</v>
@@ -13682,19 +13632,23 @@
         <v>37</v>
       </c>
       <c r="O41" s="2">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="P41" s="18">
         <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="P41" s="18">
-        <f t="shared" si="3"/>
         <v>16588.599999999999</v>
       </c>
+      <c r="Q41" s="19">
+        <f>_xlfn.XLOOKUP(B41,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="42" spans="1:16" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
       <c r="B42" s="15" t="str">
-        <f>D42&amp;E42</f>
-        <v>3363624/91</v>
+        <f t="shared" si="2"/>
+        <v>3363-624/91</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>52</v>
@@ -13733,19 +13687,23 @@
         <v>37</v>
       </c>
       <c r="O42" s="2">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="P42" s="18">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="P42" s="18">
-        <f t="shared" si="3"/>
         <v>5854.7999999999993</v>
       </c>
+      <c r="Q42" s="19">
+        <f>_xlfn.XLOOKUP(B42,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="43" spans="1:16" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="14"/>
       <c r="B43" s="15" t="str">
-        <f>D43&amp;E43</f>
-        <v>3363625/20</v>
+        <f t="shared" si="2"/>
+        <v>3363-625/20</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>52</v>
@@ -13784,19 +13742,23 @@
         <v>1</v>
       </c>
       <c r="O43" s="2">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="P43" s="18">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="P43" s="18">
-        <f t="shared" si="3"/>
         <v>24395</v>
       </c>
+      <c r="Q43" s="19">
+        <f>_xlfn.XLOOKUP(B43,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="44" spans="1:16" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14"/>
       <c r="B44" s="15" t="str">
-        <f>D44&amp;E44</f>
-        <v>3363630/23</v>
+        <f t="shared" si="2"/>
+        <v>3363-630/23</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>52</v>
@@ -13835,19 +13797,23 @@
         <v>37</v>
       </c>
       <c r="O44" s="2">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="P44" s="18">
         <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
-      <c r="P44" s="18">
-        <f t="shared" si="3"/>
         <v>23419.199999999997</v>
       </c>
+      <c r="Q44" s="19">
+        <f>_xlfn.XLOOKUP(B44,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="45" spans="1:16" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" customFormat="1" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="B45" s="15" t="str">
-        <f>D45&amp;E45</f>
-        <v>3363632/23</v>
+        <f t="shared" si="2"/>
+        <v>3363-632/23</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>52</v>
@@ -13886,19 +13852,23 @@
         <v>37</v>
       </c>
       <c r="O45" s="2">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="P45" s="18">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="P45" s="18">
-        <f t="shared" si="3"/>
         <v>9758</v>
       </c>
+      <c r="Q45" s="19">
+        <f>_xlfn.XLOOKUP(B45,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="46" spans="1:16" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" customFormat="1" ht="110.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="15" t="str">
-        <f>D46&amp;E46</f>
-        <v>3363641/76</v>
+        <f t="shared" si="2"/>
+        <v>3363-641/76</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>52</v>
@@ -13937,93 +13907,98 @@
         <v>1</v>
       </c>
       <c r="O46" s="2">
+        <f t="shared" si="5"/>
+        <v>25</v>
+      </c>
+      <c r="P46" s="18">
         <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
-      <c r="P46" s="18">
-        <f t="shared" si="3"/>
         <v>24395</v>
       </c>
+      <c r="Q46" s="19">
+        <f>_xlfn.XLOOKUP(B46,'153'!B:B,'153'!O:O,0,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O47" s="19">
         <f>SUM(O2:O46)</f>
         <v>1898</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q47" xr:uid="{D23B3401-3DAE-4D55-B633-56D74BC94ACB}"/>
   <conditionalFormatting sqref="O36 O42:O46 O30:O33 O2:O21">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="14" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2:N46">
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="13" priority="15">
       <formula>OR(H2&gt;#REF!,#REF!="")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23 O37 O39">
-    <cfRule type="cellIs" dxfId="15" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26">
-    <cfRule type="cellIs" dxfId="14" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29">
-    <cfRule type="cellIs" dxfId="13" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27">
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24">
-    <cfRule type="cellIs" dxfId="11" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35">
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34">
-    <cfRule type="cellIs" dxfId="8" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25">
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
